--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb2/StartMachineConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb2/StartMachineConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B97A9D2-BB24-4CF1-A380-23CC5B13046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312C1B93-6A39-4EE3-9AFF-1A0BD884059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,12 +88,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.10.58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.10.148</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.10.50</t>
   </si>
 </sst>
 </file>
@@ -470,7 +469,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -541,10 +540,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>10000</v>
@@ -557,10 +556,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>10000</v>
